--- a/bom/BOM_Three_Phase_Driver_VER2.0.xlsx
+++ b/bom/BOM_Three_Phase_Driver_VER2.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Reference</t>
   </si>
@@ -36,19 +36,25 @@
     <t>Analog</t>
   </si>
   <si>
+    <t>Availability</t>
+  </si>
+  <si>
     <t>C1,C2,C5,C6,C7,C8,C27,C28,C34,C35,C40,C41,C42,C50,C51,C52,C53,C55,C75,C76,C77,C78,C80,C84,C85,C88,C89</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
   </si>
   <si>
+    <t xml:space="preserve">Capacitor 25V</t>
+  </si>
+  <si>
+    <t>C3,C4,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C31,C32,C36,C37,C38,C39,C43,C44,C47,C48,C49</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:C_1210_3225Metric_Pad1.33x2.70mm_HandSolder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Capacitor 50V</t>
-  </si>
-  <si>
-    <t>C3,C4,C9,C10,C11,C12,C13,C14,C15,C16,C17,C18,C19,C20,C31,C32,C36,C37,C38,C39,C43,C44,C47,C48,C49</t>
-  </si>
-  <si>
-    <t>Capacitor_SMD:C_1210_3225Metric_Pad1.33x2.70mm_HandSolder</t>
   </si>
   <si>
     <t>C21,C23,C25,C57,C58,C63,C64,C69,C70</t>
@@ -322,7 +328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +345,18 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor theme="6" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="2"/>
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
     <fill>
@@ -405,20 +423,26 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="165" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="1" numFmtId="166" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -428,16 +452,7 @@
     <xf fontId="0" fillId="3" borderId="1" numFmtId="168" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="4" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf fontId="0" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -446,16 +461,25 @@
     <xf fontId="0" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="169" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="170" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="8" borderId="1" numFmtId="171" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="8" borderId="1" numFmtId="164" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="9" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="169" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="170" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="10" borderId="1" numFmtId="171" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="11" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,7 +953,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -961,710 +985,752 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="57">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" ht="57">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" ht="42.75">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" ht="42.75">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" ht="42.75">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" ht="42.75">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="10">
+        <v>56</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" ht="42.75">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" ht="42.75">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11">
+        <v>220</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
         <v>6</v>
       </c>
-      <c r="B2" s="3">
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" ht="28.5">
+      <c r="A10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="12">
+        <v>3</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" ht="28.5">
+      <c r="A11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12">
+        <v>12</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="12">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" ht="42.75">
+      <c r="A14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12">
+        <v>3</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" ht="42.75">
+      <c r="A15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" ht="42.75">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" ht="28.5">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="12">
+        <v>6</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="12">
+        <v>6</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" ht="28.5">
+      <c r="A19" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="12">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" ht="42.75">
+      <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" ht="42.75">
+      <c r="A21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="42.75">
+      <c r="A22" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" ht="42.75">
+      <c r="A23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="13">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" ht="42.75">
+      <c r="A24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="15">
+        <v>4.7000000000000002</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="14">
+        <v>6</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" ht="28.5">
+      <c r="A25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="42.75">
+      <c r="A26" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="17">
+        <v>120</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="17">
+        <v>18</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" ht="42.75">
+      <c r="A27" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="17">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="17">
+        <v>12</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" ht="85.5">
+      <c r="A28" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="17">
+        <v>10</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="17">
+        <v>36</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" ht="42.75">
+      <c r="A29" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="18">
+        <v>10</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="17">
+        <v>15</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" ht="42.75">
+      <c r="A30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="19">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="57">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" ht="42.75">
+      <c r="A31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="17">
+        <v>330</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="17">
+        <v>6</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" ht="42.75">
+      <c r="A32" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="18">
+        <v>30</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="17">
+        <v>6</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" ht="42.75">
+      <c r="A33" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="17">
+        <v>3</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" ht="42.75">
+      <c r="A34" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="17">
+        <v>6</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" ht="42.75">
+      <c r="A35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="17">
+        <v>500</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="17"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" ht="42.75">
+      <c r="A36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="20">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="17">
+        <v>3</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="21">
+        <v>1</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" ht="28.5">
+      <c r="A38" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="21">
+        <v>3</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" ht="28.5">
+      <c r="A39" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="21">
+        <v>3</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" ht="28.5">
+      <c r="A40" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="42.75">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.10000000000000001</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="42.75">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D40" s="21">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" ht="42.75">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" ht="42.75">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="6">
-        <v>56</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" ht="42.75">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4">
-        <v>22</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" ht="42.75">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7">
-        <v>220</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" ht="28.5">
-      <c r="A10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" ht="28.5">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8">
-        <v>6</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" ht="42.75">
-      <c r="A14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8">
-        <v>3</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" ht="42.75">
-      <c r="A15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8">
-        <v>3</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" ht="42.75">
-      <c r="A16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" ht="28.5">
-      <c r="A17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="8">
-        <v>6</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" ht="28.5">
-      <c r="A19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" ht="42.75">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" ht="42.75">
-      <c r="A21" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="42.75">
-      <c r="A22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" ht="42.75">
-      <c r="A23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" ht="42.75">
-      <c r="A24" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4.7000000000000002</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="10">
-        <v>6</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" ht="28.5">
-      <c r="A25" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="12">
-        <v>3</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" ht="42.75">
-      <c r="A26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="13">
-        <v>120</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="13">
-        <v>18</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" ht="42.75">
-      <c r="A27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="13">
-        <v>12</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" ht="85.5">
-      <c r="A28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="13">
-        <v>10</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="13">
-        <v>36</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" ht="42.75">
-      <c r="A29" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="14">
-        <v>10</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="13">
-        <v>15</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" ht="42.75">
-      <c r="A30" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="13">
-        <v>3</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" ht="42.75">
-      <c r="A31" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="13">
-        <v>330</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="13">
-        <v>6</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" ht="42.75">
-      <c r="A32" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="14">
-        <v>30</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="13">
-        <v>6</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" ht="42.75">
-      <c r="A33" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="15">
-        <v>1.5</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="13">
-        <v>3</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" ht="42.75">
-      <c r="A34" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="13">
-        <v>6</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" ht="42.75">
-      <c r="A35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="13">
-        <v>500</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="13">
-        <v>1</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" ht="42.75">
-      <c r="A36" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="16">
-        <v>1</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="13">
-        <v>3</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" ht="28.5">
-      <c r="A38" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="17">
-        <v>3</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" ht="28.5">
-      <c r="A39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="17">
-        <v>3</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F39" s="17"/>
-    </row>
-    <row r="40" ht="28.5">
-      <c r="A40" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="17">
-        <v>3</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>93</v>
-      </c>
+      <c r="E40" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
